--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/21,07,25 Ост СЫР филиалы/заказ СЫРЫ от 23,07,25 на 28,07,25.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/21,07,25 Ост СЫР филиалы/заказ СЫРЫ от 23,07,25 на 28,07,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\21,07,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\21,07,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD16DA3-E0E9-46E6-83DA-33005632239B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F38F1-0CD5-4132-B6D8-D4924D04A366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,8 +818,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -1432,14 +1432,14 @@
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -1459,14 +1459,14 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>12.600000000000001</v>
       </c>
       <c r="I25" s="11"/>
@@ -1484,14 +1484,14 @@
       <c r="D26" s="14"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -1509,14 +1509,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -1534,14 +1534,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -1561,14 +1561,14 @@
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I29" s="11"/>
@@ -1588,14 +1588,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>28.08</v>
       </c>
       <c r="I30" s="11"/>
@@ -1698,14 +1698,14 @@
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F39" si="2">D34/C34</f>
         <v>19</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>60.800000000000004</v>
       </c>
       <c r="I34" s="11"/>
@@ -1723,14 +1723,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -1748,14 +1748,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -1775,14 +1775,14 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>5.76</v>
       </c>
       <c r="I37" s="11"/>
@@ -1800,14 +1800,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -1825,14 +1825,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -1850,14 +1850,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f t="shared" ref="F40:F45" si="0">D40/C40</f>
+        <f t="shared" ref="F40:F45" si="4">D40/C40</f>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -1875,14 +1875,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -1900,14 +1900,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -1925,14 +1925,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -1950,14 +1950,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -1975,14 +1975,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -2007,7 +2007,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -2034,7 +2034,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -2080,7 +2080,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -2702,14 +2702,14 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>82</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>49.2</v>
       </c>
       <c r="I24" s="11"/>
@@ -2729,14 +2729,14 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>73.2</v>
       </c>
       <c r="I25" s="11"/>
@@ -2756,14 +2756,14 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
       <c r="I26" s="11"/>
@@ -2783,14 +2783,14 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>19.200000000000003</v>
       </c>
       <c r="I27" s="11"/>
@@ -2808,14 +2808,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -2833,14 +2833,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -2860,14 +2860,14 @@
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="I30" s="11"/>
@@ -2966,14 +2966,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2991,14 +2991,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -3016,14 +3016,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -3041,14 +3041,14 @@
       <c r="D37" s="14"/>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
@@ -3066,14 +3066,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -3091,14 +3091,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -3116,14 +3116,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -3141,14 +3141,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -3166,14 +3166,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -3191,14 +3191,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -3216,14 +3216,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -3241,14 +3241,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -3273,7 +3273,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -3300,7 +3300,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -3340,7 +3340,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -3950,14 +3950,14 @@
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>23</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>13.8</v>
       </c>
       <c r="I24" s="11"/>
@@ -3977,14 +3977,14 @@
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>20.400000000000002</v>
       </c>
       <c r="I25" s="11"/>
@@ -4004,14 +4004,14 @@
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I26" s="11"/>
@@ -4031,14 +4031,14 @@
       </c>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>11.200000000000001</v>
       </c>
       <c r="I27" s="11"/>
@@ -4056,14 +4056,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -4081,14 +4081,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -4106,14 +4106,14 @@
       <c r="D30" s="14"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -4214,14 +4214,14 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -4239,14 +4239,14 @@
       <c r="D35" s="14"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -4264,14 +4264,14 @@
       <c r="D36" s="14"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -4291,14 +4291,14 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>8.64</v>
       </c>
       <c r="I37" s="11"/>
@@ -4318,14 +4318,14 @@
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>5.76</v>
       </c>
       <c r="I38" s="11"/>
@@ -4343,14 +4343,14 @@
       <c r="D39" s="14"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -4368,14 +4368,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -4393,14 +4393,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -4418,14 +4418,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -4443,14 +4443,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -4468,14 +4468,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -4493,14 +4493,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -4525,7 +4525,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -4552,7 +4552,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
@@ -4592,7 +4592,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -5200,14 +5200,14 @@
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11">
-        <f>D24/C24</f>
+        <f t="shared" ref="F24:F30" si="0">D24/C24</f>
         <v>0</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
       </c>
       <c r="H24" s="11">
-        <f>G24*D24</f>
+        <f t="shared" ref="H24:H30" si="1">G24*D24</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -5225,14 +5225,14 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="11">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>0.1</v>
       </c>
       <c r="H25" s="11">
-        <f>G25*D25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -5250,14 +5250,14 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="2">
         <v>0.1</v>
       </c>
       <c r="H26" s="11">
-        <f>G26*D26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -5275,14 +5275,14 @@
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="11">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="2">
         <v>0.1</v>
       </c>
       <c r="H27" s="11">
-        <f>G27*D27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
@@ -5300,14 +5300,14 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="11">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H28" s="11">
-        <f>G28*D28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -5325,14 +5325,14 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="11">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H29" s="11">
-        <f>G29*D29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -5350,14 +5350,14 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="11">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
         <v>0.18</v>
       </c>
       <c r="H30" s="11">
-        <f>G30*D30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -5456,14 +5456,14 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="11">
-        <f>D34/C34</f>
+        <f t="shared" ref="F34:F45" si="2">D34/C34</f>
         <v>0</v>
       </c>
       <c r="G34" s="2">
         <v>0.4</v>
       </c>
       <c r="H34" s="11">
-        <f>G34*D34</f>
+        <f t="shared" ref="H34:H47" si="3">G34*D34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -5481,14 +5481,14 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="11">
-        <f>D35/C35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="2">
         <v>0.4</v>
       </c>
       <c r="H35" s="11">
-        <f>G35*D35</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
@@ -5506,14 +5506,14 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="11">
-        <f>D36/C36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>0.18</v>
       </c>
       <c r="H36" s="11">
-        <f>G36*D36</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -5533,14 +5533,14 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="11">
-        <f>D37/C37</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G37" s="2">
         <v>0.18</v>
       </c>
       <c r="H37" s="11">
-        <f>G37*D37</f>
+        <f t="shared" si="3"/>
         <v>2.88</v>
       </c>
       <c r="I37" s="11"/>
@@ -5558,14 +5558,14 @@
       <c r="D38" s="14"/>
       <c r="E38" s="16"/>
       <c r="F38" s="11">
-        <f>D38/C38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>0.18</v>
       </c>
       <c r="H38" s="11">
-        <f>G38*D38</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
@@ -5583,14 +5583,14 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="11">
-        <f>D39/C39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="2">
         <v>0.14000000000000001</v>
       </c>
       <c r="H39" s="11">
-        <f>G39*D39</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
@@ -5608,14 +5608,14 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="11">
-        <f>D40/C40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="2">
         <v>0.18</v>
       </c>
       <c r="H40" s="11">
-        <f>G40*D40</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
@@ -5633,14 +5633,14 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="11">
-        <f>D41/C41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>0.1</v>
       </c>
       <c r="H41" s="11">
-        <f>G41*D41</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
@@ -5658,14 +5658,14 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="11">
-        <f>D42/C42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="2">
         <v>0.1</v>
       </c>
       <c r="H42" s="11">
-        <f>G42*D42</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
@@ -5683,14 +5683,14 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="11">
-        <f>D43/C43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="2">
         <v>0.1</v>
       </c>
       <c r="H43" s="11">
-        <f>G43*D43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -5708,14 +5708,14 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="11">
-        <f>D44/C44</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="2">
         <v>0.125</v>
       </c>
       <c r="H44" s="11">
-        <f>G44*D44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
@@ -5733,14 +5733,14 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="11">
-        <f>D45/C45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="2">
         <v>0.125</v>
       </c>
       <c r="H45" s="11">
-        <f>G45*D45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
@@ -5765,7 +5765,7 @@
         <v>0.2</v>
       </c>
       <c r="H46" s="11">
-        <f>G46*D46</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I46" s="18" t="s">
@@ -5792,7 +5792,7 @@
         <v>0.8</v>
       </c>
       <c r="H47" s="11">
-        <f>G47*D47</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I47" s="18" t="s">
